--- a/docs/src/checks.xlsx
+++ b/docs/src/checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\tom\hardshell\docs\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45620913-7D57-4E2F-9C7B-035D34C6EC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC2DF3B-CD28-4CF1-8946-91C53258C6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3EAF4BFD-ACA9-4967-94F6-E059E8FF25E4}"/>
   </bookViews>
@@ -3558,12 +3558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C05E3C-B0D6-4F66-8382-7BCC895B30C5}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3876,7 +3875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>237</v>
@@ -3900,7 +3899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>237</v>
@@ -3924,7 +3923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>237</v>
@@ -3948,7 +3947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>237</v>
@@ -3972,7 +3971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>237</v>
@@ -3998,7 +3997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>237</v>
@@ -4024,7 +4023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>237</v>
@@ -4048,7 +4047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>237</v>
@@ -4074,7 +4073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>237</v>
@@ -4100,7 +4099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>237</v>
@@ -4842,7 +4841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>237</v>
@@ -4868,7 +4867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>237</v>
@@ -4894,7 +4893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>237</v>
@@ -4948,7 +4947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>237</v>
@@ -4976,7 +4975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>237</v>
@@ -5440,7 +5439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>237</v>
@@ -5466,7 +5465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
         <v>237</v>
@@ -5492,7 +5491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
         <v>237</v>
@@ -6798,7 +6797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>965</v>
       </c>
@@ -7016,7 +7015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
         <v>237</v>
@@ -7046,7 +7045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
         <v>237</v>
@@ -7072,7 +7071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>965</v>
       </c>
@@ -7132,7 +7131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
         <v>237</v>
@@ -7160,7 +7159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
         <v>237</v>
@@ -7220,7 +7219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>965</v>
       </c>
@@ -7986,7 +7985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2" t="s">
         <v>237</v>
@@ -8362,7 +8361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2" t="s">
         <v>237</v>
@@ -8392,7 +8391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
         <v>237</v>
@@ -8422,7 +8421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2" t="s">
         <v>237</v>
@@ -8452,7 +8451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2" t="s">
         <v>237</v>
@@ -8480,7 +8479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2" t="s">
         <v>237</v>
@@ -8508,7 +8507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2" t="s">
         <v>237</v>
@@ -8538,7 +8537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2" t="s">
         <v>237</v>
@@ -8568,7 +8567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2" t="s">
         <v>237</v>
@@ -8594,7 +8593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2" t="s">
         <v>237</v>
@@ -13128,7 +13127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2" t="s">
         <v>237</v>
@@ -13154,7 +13153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2" t="s">
         <v>237</v>
@@ -13180,7 +13179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2" t="s">
         <v>237</v>
@@ -13206,7 +13205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2" t="s">
         <v>237</v>
@@ -13232,7 +13231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2" t="s">
         <v>237</v>
@@ -13812,7 +13811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2" t="s">
         <v>237</v>
@@ -13836,7 +13835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2" t="s">
         <v>237</v>
@@ -13860,7 +13859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2" t="s">
         <v>237</v>
@@ -13884,7 +13883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2" t="s">
         <v>237</v>
@@ -14594,7 +14593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2" t="s">
         <v>237</v>
@@ -14622,7 +14621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2" t="s">
         <v>237</v>
@@ -14650,7 +14649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2" t="s">
         <v>237</v>
@@ -14678,7 +14677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2" t="s">
         <v>237</v>
@@ -14734,7 +14733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
         <v>965</v>
       </c>
@@ -14946,7 +14945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2" t="s">
         <v>237</v>
@@ -16154,7 +16153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="6" t="s">
         <v>964</v>
       </c>
@@ -16390,7 +16389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2" t="s">
         <v>237</v>
@@ -16416,7 +16415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2" t="s">
         <v>237</v>
@@ -16440,7 +16439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2" t="s">
         <v>237</v>
@@ -16466,7 +16465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2" t="s">
         <v>237</v>
@@ -16492,7 +16491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2" t="s">
         <v>237</v>
@@ -16580,7 +16579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="6" t="s">
         <v>965</v>
       </c>
@@ -16672,7 +16671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2" t="s">
         <v>237</v>
@@ -16696,7 +16695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2" t="s">
         <v>237</v>
@@ -16720,7 +16719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2" t="s">
         <v>237</v>
@@ -16744,7 +16743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2" t="s">
         <v>237</v>
@@ -16768,7 +16767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2" t="s">
         <v>237</v>
@@ -16792,211 +16791,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J469" xr:uid="{B7C05E3C-B0D6-4F66-8382-7BCC895B30C5}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="accounts-0001a"/>
-        <filter val="aide-0001a"/>
-        <filter val="aide-0002a"/>
-        <filter val="aide-0003a"/>
-        <filter val="aide-0004a"/>
-        <filter val="aide-0005a"/>
-        <filter val="aide-0006a"/>
-        <filter val="at-0001a"/>
-        <filter val="at-0002a"/>
-        <filter val="at-0003a"/>
-        <filter val="at-0004a"/>
-        <filter val="at-0005a"/>
-        <filter val="audit-0001a"/>
-        <filter val="audit-0002a"/>
-        <filter val="audit-0003a"/>
-        <filter val="authselect-0001a"/>
-        <filter val="avahi-0001a"/>
-        <filter val="avahi-0002a"/>
-        <filter val="avahi-0003a"/>
-        <filter val="avahi-0004a"/>
-        <filter val="avahi-0005a"/>
-        <filter val="banner-0001a"/>
-        <filter val="banner-0002a"/>
-        <filter val="banner-0003a"/>
-        <filter val="bind-0001a"/>
-        <filter val="bootloader-0001a"/>
-        <filter val="bootloader-0002a"/>
-        <filter val="chrony-0001a"/>
-        <filter val="chrony-0002a"/>
-        <filter val="chrony-0003a"/>
-        <filter val="chrony-0004a"/>
-        <filter val="coredump-0001a"/>
-        <filter val="coredump-0002a"/>
-        <filter val="cron-0001a"/>
-        <filter val="cron-0002a"/>
-        <filter val="cron-0003a"/>
-        <filter val="cron-0004a"/>
-        <filter val="cron-0005a"/>
-        <filter val="cron-0006a"/>
-        <filter val="cron-0007a"/>
-        <filter val="cron-0008a"/>
-        <filter val="cron-0009a"/>
-        <filter val="cron-0010a"/>
-        <filter val="cron-0011a"/>
-        <filter val="crypto-0001a"/>
-        <filter val="cups-0001a"/>
-        <filter val="dnsmasq-0001a"/>
-        <filter val="dovecot-0001a"/>
-        <filter val="firewalld.0001a"/>
-        <filter val="firewalld.0002a"/>
-        <filter val="firewalld.0003a"/>
-        <filter val="gpg-0001a"/>
-        <filter val="httpd-0001a"/>
-        <filter val="ipv4-0001a"/>
-        <filter val="ipv4-0002a"/>
-        <filter val="ipv4-0003a"/>
-        <filter val="ipv4-0004a"/>
-        <filter val="ipv4-0005a"/>
-        <filter val="ipv4-0006a"/>
-        <filter val="ipv4-0007a"/>
-        <filter val="ipv4-0008a"/>
-        <filter val="ipv4-0009a"/>
-        <filter val="ipv4-0010a"/>
-        <filter val="ipv4-0011a"/>
-        <filter val="ipv4-0012a"/>
-        <filter val="ipv4-0013a"/>
-        <filter val="ipv4-0014a"/>
-        <filter val="ipv4-0015a"/>
-        <filter val="ipv4-0018a"/>
-        <filter val="ipv6-0001a"/>
-        <filter val="ipv6-0002a"/>
-        <filter val="ipv6-0003a"/>
-        <filter val="ipv6-0004a"/>
-        <filter val="ipv6-0005a"/>
-        <filter val="ipv6-0006a"/>
-        <filter val="ipv6-0007a"/>
-        <filter val="journald-0001a"/>
-        <filter val="journald-0002a"/>
-        <filter val="journald-0003a"/>
-        <filter val="journald-0004a"/>
-        <filter val="journald-0005a"/>
-        <filter val="journald-0006a"/>
-        <filter val="journald-0007a"/>
-        <filter val="lftp-0001a"/>
-        <filter val="module-0001a"/>
-        <filter val="module-0002a"/>
-        <filter val="module-0003a"/>
-        <filter val="module-0004a"/>
-        <filter val="module-0005a"/>
-        <filter val="module-0006a"/>
-        <filter val="module-0007a"/>
-        <filter val="module-0008a"/>
-        <filter val="module-0009a"/>
-        <filter val="module-0010a"/>
-        <filter val="module-0011a"/>
-        <filter val="module-0012a"/>
-        <filter val="mount-0001a"/>
-        <filter val="mount-0002a"/>
-        <filter val="mount-0003a"/>
-        <filter val="mount-0004a"/>
-        <filter val="mount-0005a"/>
-        <filter val="mount-0006a"/>
-        <filter val="mount-0007a"/>
-        <filter val="mta-0001a"/>
-        <filter val="mta-0002a"/>
-        <filter val="nfs-0001a"/>
-        <filter val="nfs-0002a"/>
-        <filter val="nfs-0003a"/>
-        <filter val="nftables-0001a"/>
-        <filter val="nftables-0002a"/>
-        <filter val="nftables-0003a"/>
-        <filter val="nginx-0001a"/>
-        <filter val="openldap-0001a"/>
-        <filter val="pam-0001a"/>
-        <filter val="pam-0002a"/>
-        <filter val="pam-0003a"/>
-        <filter val="pam-0004a"/>
-        <filter val="pam-0005a"/>
-        <filter val="pam-0006a"/>
-        <filter val="pam-0007a"/>
-        <filter val="pam-0008a"/>
-        <filter val="pam-0009a"/>
-        <filter val="pam-0010a"/>
-        <filter val="pam-0011a"/>
-        <filter val="pam-0012a"/>
-        <filter val="pam-0013a"/>
-        <filter val="pam-0014a"/>
-        <filter val="pam-0015a"/>
-        <filter val="pam-0016a"/>
-        <filter val="pam-0017a"/>
-        <filter val="pam-0018a"/>
-        <filter val="pam-0019a"/>
-        <filter val="parameters-0001a"/>
-        <filter val="parameters-0002a"/>
-        <filter val="postfix-0001a"/>
-        <filter val="rpcbind-0001a"/>
-        <filter val="rpcbind-0002a"/>
-        <filter val="rpcbind-0003a"/>
-        <filter val="rpcbind-0004a"/>
-        <filter val="rpcbind-0005a"/>
-        <filter val="rsync-0001a"/>
-        <filter val="rsync-0002a"/>
-        <filter val="rsync-0003a"/>
-        <filter val="rsyslog-0001a"/>
-        <filter val="rsyslog-0002a"/>
-        <filter val="rsyslog-0003a"/>
-        <filter val="rsyslog-0004a"/>
-        <filter val="samba-0001a"/>
-        <filter val="selinux-0001a"/>
-        <filter val="selinux-0002a"/>
-        <filter val="selinux-0003a"/>
-        <filter val="selinux-0004a"/>
-        <filter val="selinux-0005a"/>
-        <filter val="selinux-0006a"/>
-        <filter val="sendmail-0001a"/>
-        <filter val="snmp-0001a"/>
-        <filter val="snmp-0002a"/>
-        <filter val="snmp-0003a"/>
-        <filter val="squid-0001a"/>
-        <filter val="ssh-0001a"/>
-        <filter val="sshd-0001a"/>
-        <filter val="sshd-0002a"/>
-        <filter val="sshd-0003a"/>
-        <filter val="sshd-0004a"/>
-        <filter val="sshd-0005a"/>
-        <filter val="sshd-0006a"/>
-        <filter val="sshd-0007a"/>
-        <filter val="sshd-0008a"/>
-        <filter val="sshd-0009a"/>
-        <filter val="sshd-0010a"/>
-        <filter val="sshd-0011a"/>
-        <filter val="sshd-0012a"/>
-        <filter val="sshd-0013a"/>
-        <filter val="sshd-0014a"/>
-        <filter val="sshd-0015a"/>
-        <filter val="sshd-0016a"/>
-        <filter val="sshd-0017a"/>
-        <filter val="sshd-0018a"/>
-        <filter val="sshd-0019a"/>
-        <filter val="sshd-0020a"/>
-        <filter val="sshd-0021a"/>
-        <filter val="sshd-0022a"/>
-        <filter val="sshd-0023a"/>
-        <filter val="sshd-0024a"/>
-        <filter val="sudo-0001a"/>
-        <filter val="sudo-0002a"/>
-        <filter val="sudo-0003a"/>
-        <filter val="sudo-0004a"/>
-        <filter val="sudo-0005a"/>
-        <filter val="system-0001a"/>
-        <filter val="system-0002a"/>
-        <filter val="system-0003a"/>
-        <filter val="system-0004a"/>
-        <filter val="system-0005a"/>
-        <filter val="system-0006a"/>
-        <filter val="system-0007a"/>
-        <filter val="system-0008a"/>
-        <filter val="telnet-0001a"/>
-        <filter val="telnet-0002a"/>
-        <filter val="vsftpd-0001a"/>
-        <filter val="x11-0001a"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J450">
       <sortCondition sortBy="cellColor" ref="A1:A450" dxfId="0"/>
     </sortState>

--- a/docs/src/checks.xlsx
+++ b/docs/src/checks.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\tom\hardshell\docs\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC2DF3B-CD28-4CF1-8946-91C53258C6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DCA4634-B1E4-46E4-BCFD-2D5DF430E34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3EAF4BFD-ACA9-4967-94F6-E059E8FF25E4}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{3EAF4BFD-ACA9-4967-94F6-E059E8FF25E4}"/>
   </bookViews>
   <sheets>
     <sheet name="checks" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">checks!$A$1:$J$469</definedName>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="1231">
   <si>
     <t>check_name</t>
   </si>
@@ -2283,9 +2284,6 @@
     <t>ipv4-0013a</t>
   </si>
   <si>
-    <t>ipv4-0018a</t>
-  </si>
-  <si>
     <t>ipv4-0014a</t>
   </si>
   <si>
@@ -2457,12 +2455,6 @@
     <t>rpcbind package</t>
   </si>
   <si>
-    <t>parameters-0001a</t>
-  </si>
-  <si>
-    <t>parameters-0002a</t>
-  </si>
-  <si>
     <t>rpcbind socket</t>
   </si>
   <si>
@@ -3082,6 +3074,738 @@
   </si>
   <si>
     <t>rsyslog package</t>
+  </si>
+  <si>
+    <t>accounts-0001a - accounts - duplicate groups - accounts                             [PASS]</t>
+  </si>
+  <si>
+    <t>accounts-0001a - accounts - duplicate users - accounts                              [PASS]</t>
+  </si>
+  <si>
+    <t>accounts-0001a - accounts - shadowed passwords - accounts                           [PASS]</t>
+  </si>
+  <si>
+    <t>accounts-0001a - accounts - all groups exist - accounts                             [FAIL]</t>
+  </si>
+  <si>
+    <t>accounts-0001a - accounts - root user gid 0 - accounts                              [PASS]</t>
+  </si>
+  <si>
+    <t>accounts-0001a - accounts - root user uid 0 - accounts                              [PASS]</t>
+  </si>
+  <si>
+    <t>accounts-0002a - default user inactive setting - regex - regex                      [FAIL]</t>
+  </si>
+  <si>
+    <t>accounts-0003a - current user inactive setting - regex - regex                      [FAIL]</t>
+  </si>
+  <si>
+    <t>aide-0004a - aidecheck service file - exists - path                                 [FAIL]</t>
+  </si>
+  <si>
+    <t>aide-0005a - aidecheck timer file - exists - path                                   [FAIL]</t>
+  </si>
+  <si>
+    <t>aide-0006a - aide.conf integrity - regex - regex                                    [FAIL]</t>
+  </si>
+  <si>
+    <t>at-0003a - atd service file - exists - path                                         [FAIL]</t>
+  </si>
+  <si>
+    <t>at-0004a - at allow list - exists - path                                            [FAIL]</t>
+  </si>
+  <si>
+    <t>audit-0003a - auditd service file - exists - path                                   [FAIL]</t>
+  </si>
+  <si>
+    <t>authselect-0001a - authselect package - package installed - package                 [FAIL]</t>
+  </si>
+  <si>
+    <t>avahi-0001a - avahi package - package installed - package                           [FAIL]</t>
+  </si>
+  <si>
+    <t>avahi-0004a - avahi daemon service file - exists - path                             [FAIL]</t>
+  </si>
+  <si>
+    <t>avahi-0005a - avahi daemon socket file - exists - path                              [FAIL]</t>
+  </si>
+  <si>
+    <t>banner-0001a - issue file - exists - path                                           [PASS]</t>
+  </si>
+  <si>
+    <t>banner-0001a - issue file - permissions - path                                      [FAIL]</t>
+  </si>
+  <si>
+    <t>banner-0002a - issue.net file - exists - path                                       [PASS]</t>
+  </si>
+  <si>
+    <t>banner-0002a - issue.net file - permissions - path                                  [FAIL]</t>
+  </si>
+  <si>
+    <t>banner-0003a - motd file - exists - path                                            [PASS]</t>
+  </si>
+  <si>
+    <t>banner-0003a - motd file - permissions - path                                       [FAIL]</t>
+  </si>
+  <si>
+    <t>bind-0001a - bind package - package installed - package                             [FAIL]</t>
+  </si>
+  <si>
+    <t>chrony-0003a - chronyd service file - exists - path                                 [FAIL]</t>
+  </si>
+  <si>
+    <t>chrony-0004a - chrony configured - regex - regex                                    [FAIL]</t>
+  </si>
+  <si>
+    <t>coredump-0001a - coredump backtraces disabled - regex - regex                       [FAIL]</t>
+  </si>
+  <si>
+    <t>coredump-0002a - coredump storage disabled - regex - regex                          [FAIL]</t>
+  </si>
+  <si>
+    <t>cron-0001a - cronie package - package installed - package                           [FAIL]</t>
+  </si>
+  <si>
+    <t>cron-0003a - crond service file - exists - path                                     [FAIL]</t>
+  </si>
+  <si>
+    <t>cron-0004a - cron allow list - exists - path                                        [FAIL]</t>
+  </si>
+  <si>
+    <t>cron-0005a - cron deny list - exists - path                                         [PASS]</t>
+  </si>
+  <si>
+    <t>cron-0006a - cron.d directory - exists - path                                       [FAIL]</t>
+  </si>
+  <si>
+    <t>crypto-0001a - system-wide crypto policy not legacy - regex - regex                 [PASS]</t>
+  </si>
+  <si>
+    <t>cups-0001a - cups package - package installed - package                             [FAIL]</t>
+  </si>
+  <si>
+    <t>dnsmasq-0001a - dnsmasq package - package installed - package                       [FAIL]</t>
+  </si>
+  <si>
+    <t>dovecot-0001a - dovecot package - package installed - package                       [FAIL]</t>
+  </si>
+  <si>
+    <t>firewalld-0003a - firewalld service file - exists - path                            [FAIL]</t>
+  </si>
+  <si>
+    <t>gpg-0001a - gpgcheck enabled globally - regex - regex                               [FAIL]</t>
+  </si>
+  <si>
+    <t>httpd-0001a - httpd package - package installed - package                           [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0001a - ipv4 bogus icmp responses ignored - regex - regex                      [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0002a - ipv4 broadcast icmp requests ignored - regex - regex                   [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0003a - ipv4 icmp redirects not accepted (all) - regex - regex                 [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0004a - ipv4 icmp redirects not accepted (default) - regex - regex             [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0005a - ipv4 ip forwarding disabled - regex - regex                            [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0006a - ipv4 packet redirect sending disabled (all) - regex - regex            [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0007a - ipv4 packet redirect sending disabled (default) - regex - regex        [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0008a - ipv4 reverse path filtering enabled (all) - regex - regex              [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0009a - ipv4 reverse path filtering enabled (default) - regex - regex          [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0010a - ipv4 secure icmp redirects not accepted (all) - regex - regex          [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0011a - ipv4 secure icmp redirects not accepted (default) - regex - regex      [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0012a - ipv4 source routed packets not accepted (all) - regex - regex          [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0013a - ipv4 source routed packets not accepted (default) - regex - regex      [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0014a - ipv4 suspicious packets logged (all) - regex - regex                   [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0015a - ipv4 suspicious packets logged (default) - regex - regex               [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv4-0016a - ipv4 tcp syn cookies enabled - regex - regex                           [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv6-0001a - ipv6 icmp redirects not accepted (all) - regex - regex                 [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv6-0002a - ipv6 icmp redirects not accepted (default) - regex - regex             [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv6-0003a - ipv6 ip forwarding disabled - regex - regex                            [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv6-0004a - ipv6 router advertisements not accepted (all) - regex - regex          [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv6-0005a - ipv6 router advertisements not accepted (all) - regex - regex          [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv6-0006a - ipv6 source routed packets not accepted (all) - regex - regex          [FAIL]</t>
+  </si>
+  <si>
+    <t>ipv6-0007a - ipv6 source routed packets not accepted (default) - regex - regex      [FAIL]</t>
+  </si>
+  <si>
+    <t>journald-0005a - systemd journald service file - exists - path                      [FAIL]</t>
+  </si>
+  <si>
+    <t>journald-0006a - systemd journal remote service file - exists - path                [FAIL]</t>
+  </si>
+  <si>
+    <t>journald-0007a - systemd journal upload service file - exists - path                [FAIL]</t>
+  </si>
+  <si>
+    <t>lftp-0001a - lftp package - package installed - package                             [FAIL]</t>
+  </si>
+  <si>
+    <t>mount-0001a - /dev/shm mount - mount exists - mount                                 [PASS]</t>
+  </si>
+  <si>
+    <t>mount-0001a - /dev/shm mount - mount is mounted - mount                             [PASS]</t>
+  </si>
+  <si>
+    <t>mount-0001a - /dev/shm mount - mount options - mount                                [PASS]</t>
+  </si>
+  <si>
+    <t>mount-0001a - /dev/shm mount - mount is separate partition - mount                  [FAIL]</t>
+  </si>
+  <si>
+    <t>mount-0001a - /dev/shm mount - mount is mounted at boot - mount                     [FAIL]</t>
+  </si>
+  <si>
+    <t>mount-0002a - /home mount - mount exists - mount                                    [FAIL]</t>
+  </si>
+  <si>
+    <t>mount-0004a - /var mount - mount exists - mount                                     [FAIL]</t>
+  </si>
+  <si>
+    <t>mount-0005a - /var/log mount - mount exists - mount                                 [FAIL]</t>
+  </si>
+  <si>
+    <t>mount-0006a - /var/log/audit mount - mount exists - mount                           [FAIL]</t>
+  </si>
+  <si>
+    <t>mount-0007a - /var/tmp mount - mount exists - mount                                 [FAIL]</t>
+  </si>
+  <si>
+    <t>mta-0001a - ipv4 local-only configured - regex - regex                              [PASS]</t>
+  </si>
+  <si>
+    <t>mta-0002a - ipv6 local-only configured - regex - regex                              [PASS]</t>
+  </si>
+  <si>
+    <t>nfs-0003a - nfs server service file - exists - path                                 [FAIL]</t>
+  </si>
+  <si>
+    <t>nftables-0003a - nftables service file - exists - path                              [FAIL]</t>
+  </si>
+  <si>
+    <t>nginx-0001a - nginx package - package installed - package                           [FAIL]</t>
+  </si>
+  <si>
+    <t>openldap-0001a - openldap-clients package - package installed - package             [FAIL]</t>
+  </si>
+  <si>
+    <t>parameter-0001a - address space layout randomization enabled - regex - regex        [FAIL]</t>
+  </si>
+  <si>
+    <t>parameter-0002a - ptrace_scope restricted - regex - regex                           [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0001a - password age warning login.defs - regex - regex                         [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0002a - password class 1 - regex - regex                                        [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0003a - password class 2 - regex - regex                                        [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0004a - password hashing libuser.conf - regex - regex                           [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0005a - password hashing login.defs - regex - regex                             [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0006a - password hashing password-auth - regex - regex                          [PASS]</t>
+  </si>
+  <si>
+    <t>pam-0007a - password hashing system-auth - regex - regex                            [PASS]</t>
+  </si>
+  <si>
+    <t>pam-0008a - password history password-auth 1 - regex - regex                        [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0009a - password history password-auth 2 - regex - regex                        [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0010a - password history system-auth 1 - regex - regex                          [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0011a - password history system-auth 2 - regex - regex                          [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0012a - password length - regex - regex                                         [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0013a - password lockout tries - regex - regex                                  [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0014a - password max age login.defs - regex - regex                             [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0015a - password min age login.defs - regex - regex                             [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0016a - password quality password-auth - regex - regex                          [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0017a - password quality system-auth - regex - regex                            [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0018a - password unlock time - regex - regex                                    [FAIL]</t>
+  </si>
+  <si>
+    <t>pam-0019a - su command restriced - regex - regex                                    [FAIL]</t>
+  </si>
+  <si>
+    <t>postfix-0001a - postfix package - package installed - package                       [FAIL]</t>
+  </si>
+  <si>
+    <t>rpcbind-0001a - rpcbind package - package installed - package                       [FAIL]</t>
+  </si>
+  <si>
+    <t>rpcbind-0004a - rpcbind service file - exists - path                                [FAIL]</t>
+  </si>
+  <si>
+    <t>rpcbind-0005a - rpcbind socket file - exists - path                                 [FAIL]</t>
+  </si>
+  <si>
+    <t>rsync-0001a - rsync-daemon package - package installed - package                    [FAIL]</t>
+  </si>
+  <si>
+    <t>rsync-0003a - rsyncd service file - exists - path                                   [FAIL]</t>
+  </si>
+  <si>
+    <t>rsyslog-0003a - rsyslog service file - exists - path                                [FAIL]</t>
+  </si>
+  <si>
+    <t>samba-0001a - samba package - package installed - package                           [FAIL]</t>
+  </si>
+  <si>
+    <t>shell-0001a - user shell timeout - regex - regex                                    [FAIL]</t>
+  </si>
+  <si>
+    <t>selinux-0001a - libselinux package - package installed - package                    [PASS]</t>
+  </si>
+  <si>
+    <t>selinux-0002a - mcstrans package - package installed - package                      [FAIL]</t>
+  </si>
+  <si>
+    <t>selinux-0003a - selinux enabled - regex - regex                                     [FAIL]</t>
+  </si>
+  <si>
+    <t>selinux-0004a - selinux mode is enforcing - regex - regex                           [FAIL]</t>
+  </si>
+  <si>
+    <t>selinux-0005a - selinux policy configured - regex - regex                           [FAIL]</t>
+  </si>
+  <si>
+    <t>selinux-0006a - selinux enabled on boot - regex - regex                             [FAIL]</t>
+  </si>
+  <si>
+    <t>sendmail-0001a - sendmail package - package installed - package                     [FAIL]</t>
+  </si>
+  <si>
+    <t>snmp-0001a - net-snmp package - package installed - package                         [FAIL]</t>
+  </si>
+  <si>
+    <t>snmp-0003a - snmpd service file - exists - path                                     [FAIL]</t>
+  </si>
+  <si>
+    <t>squid-0001a - squid package - package installed - package                           [FAIL]</t>
+  </si>
+  <si>
+    <t>ssh-0001a - openssh package - package installed - package                           [PASS]</t>
+  </si>
+  <si>
+    <t>sshd-0003a - sshd service file - exists - path                                      [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0007a - access limited - regex - regex                                         [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0008a - allowtcpforwarded disabled - regex - regex                             [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0009a - clientalivecountmax less than 10 - regex - regex                       [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0010a - clientaliveinterval 60 secs or less - regex - regex                    [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0011a - system-wide crypto policy not overridden - regex - regex               [PASS]</t>
+  </si>
+  <si>
+    <t>sshd-0012a - hostbasedauthentication disabled - regex - regex                       [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0013a - ignorerhosts enabled - regex - regex                                   [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0014a - logingracetime 60 secs or less - regex - regex                         [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0015a - loglevel configured - regex - regex                                    [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0016a - maxauthtries 4 of less - regex - regex                                 [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0017a - maxsessions 10 or less - regex - regex                                 [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0018a - maxstartups configured - regex - regex                                 [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0019a - pam enabled - regex - regex                                            [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0020a - permitemptypasswords disabled - regex - regex                          [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0021a - permitrootlogin disabled - regex - regex                               [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0022a - permituserenvironment disabled - regex - regex                         [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0024a - x11 forwarding disabled - regex - regex                                [FAIL]</t>
+  </si>
+  <si>
+    <t>sudo-0002a - auth timeout - regex - regex                                           [FAIL]</t>
+  </si>
+  <si>
+    <t>sudo-0003a - log file - regex - regex                                               [FAIL]</t>
+  </si>
+  <si>
+    <t>sudo-0004a - reauthentication globally enabled - regex - regex                      [FAIL]</t>
+  </si>
+  <si>
+    <t>sudo-0005a - use pty enabled - regex - regex                                        [FAIL]</t>
+  </si>
+  <si>
+    <t>system-0001a - /group file permissions - exists - path                              [PASS]</t>
+  </si>
+  <si>
+    <t>system-0001a - /group file permissions - permissions - path                         [FAIL]</t>
+  </si>
+  <si>
+    <t>system-0002a - group- file permissions - exists - path                              [PASS]</t>
+  </si>
+  <si>
+    <t>system-0002a - group- file permissions - permissions - path                         [FAIL]</t>
+  </si>
+  <si>
+    <t>system-0003a - gshadow file permissions - exists - path                             [PASS]</t>
+  </si>
+  <si>
+    <t>system-0003a - gshadow file permissions - permissions - path                        [FAIL]</t>
+  </si>
+  <si>
+    <t>system-0004a - gshadow- file permissions - exists - path                            [PASS]</t>
+  </si>
+  <si>
+    <t>system-0004a - gshadow- file permissions - permissions - path                       [FAIL]</t>
+  </si>
+  <si>
+    <t>system-0005a - passwd file permissions - exists - path                              [PASS]</t>
+  </si>
+  <si>
+    <t>system-0005a - passwd file permissions - permissions - path                         [FAIL]</t>
+  </si>
+  <si>
+    <t>system-0007a - shadow file permissions - exists - path                              [PASS]</t>
+  </si>
+  <si>
+    <t>system-0007a - shadow file permissions - permissions - path                         [FAIL]</t>
+  </si>
+  <si>
+    <t>telnet-0001a - telnet package - package installed - package                         [FAIL]</t>
+  </si>
+  <si>
+    <t>telnet-0002a - telnet-server package - package installed - package                  [FAIL]</t>
+  </si>
+  <si>
+    <t>vsftpd-0001a - vsftpd package - package installed - package                         [FAIL]</t>
+  </si>
+  <si>
+    <t>x11-0001a - xorg-x11-server-common package - package installed - package            [FAIL]</t>
+  </si>
+  <si>
+    <t>aide-0002a - aidecheck service - service status - unit                              [FAIL]</t>
+  </si>
+  <si>
+    <t>aide-0003a - aidecheck timer - service status - unit                                [FAIL]</t>
+  </si>
+  <si>
+    <t>at-0002a - atd service - service status - unit                                      [PASS]</t>
+  </si>
+  <si>
+    <t>audit-0002a - auditd service - service status - unit                                [PASS]</t>
+  </si>
+  <si>
+    <t>chrony-0002a - chronyd service - service status - unit                              [PASS]</t>
+  </si>
+  <si>
+    <t>cron-0002a - crond service - service status - unit                                  [FAIL]</t>
+  </si>
+  <si>
+    <t>firewalld-0002a - firewalld service - service status - unit                         [FAIL]</t>
+  </si>
+  <si>
+    <t>journald-0002a - systemd journald service - service status - unit                   [PASS]</t>
+  </si>
+  <si>
+    <t>journald-0003a - systemd journal remote service - service status - unit             [PASS]</t>
+  </si>
+  <si>
+    <t>journald-0004a - systemd journal upload service - service status - unit             [PASS]</t>
+  </si>
+  <si>
+    <t>nftables-0002a - nftables service - service status - unit                           [FAIL]</t>
+  </si>
+  <si>
+    <t>rsyslog-0002a - rsyslog service - service status - unit                             [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0002a - sshd service - service status - unit                                   [PASS]</t>
+  </si>
+  <si>
+    <t>aide-0001a - aide package - package installed - package                             [FAIL]</t>
+  </si>
+  <si>
+    <t>at-0001a - at package - package installed - package                                 [PASS]</t>
+  </si>
+  <si>
+    <t>at-0005a - at deny list - exists - path                                             [FAIL]</t>
+  </si>
+  <si>
+    <t>at-0005a - at deny list - permissions - path                                        [FAIL]</t>
+  </si>
+  <si>
+    <t>audit-0001a - audit package - package installed - package                           [PASS]</t>
+  </si>
+  <si>
+    <t>bootloader-0001a - bootloader bios files - exists - path                            [PASS]</t>
+  </si>
+  <si>
+    <t>bootloader-0001a - bootloader bios files - permissions - path                       [FAIL]</t>
+  </si>
+  <si>
+    <t>bootloader-0002a - bootloader efi files - exists - path                             [PASS]</t>
+  </si>
+  <si>
+    <t>bootloader-0002a - bootloader efi files - permissions - path                        [FAIL]</t>
+  </si>
+  <si>
+    <t>chrony-0001a - chrony package - package installed - package                         [PASS]</t>
+  </si>
+  <si>
+    <t>cron-0007a - cron.daily directory - exists - path                                   [PASS]</t>
+  </si>
+  <si>
+    <t>cron-0007a - cron.daily directory - permissions - path                              [FAIL]</t>
+  </si>
+  <si>
+    <t>cron-0008a - cron.hourly directory - exists - path                                  [PASS]</t>
+  </si>
+  <si>
+    <t>cron-0008a - cron.hourly directory - permissions - path                             [FAIL]</t>
+  </si>
+  <si>
+    <t>cron-0009a - cron.monthly directory - exists - path                                 [PASS]</t>
+  </si>
+  <si>
+    <t>cron-0009a - cron.monthly directory - permissions - path                            [FAIL]</t>
+  </si>
+  <si>
+    <t>cron-0010a - cron.weekly directory - exists - path                                  [PASS]</t>
+  </si>
+  <si>
+    <t>cron-0010a - cron.weekly directory - permissions - path                             [FAIL]</t>
+  </si>
+  <si>
+    <t>cron-0011a - crontab file - exists - path                                           [PASS]</t>
+  </si>
+  <si>
+    <t>cron-0011a - crontab file - permissions - path                                      [FAIL]</t>
+  </si>
+  <si>
+    <t>firewalld-0001a - firewalld package - package installed - package                   [PASS]</t>
+  </si>
+  <si>
+    <t>journald-0001a - systemd journal remote package - package installed - package       [PASS]</t>
+  </si>
+  <si>
+    <t>module-0007a - rds module - module loaded - module                                  [PASS]</t>
+  </si>
+  <si>
+    <t>module-0007a - rds module - module deny listed - module                             [FAIL]</t>
+  </si>
+  <si>
+    <t>module-0007a - rds module - module /bin/true entry - module                         [PASS]</t>
+  </si>
+  <si>
+    <t>module-0007a - rds module - module /bin/false entry - module                        [PASS]</t>
+  </si>
+  <si>
+    <t>module-0008a - sctp module - module loaded - module                                 [PASS]</t>
+  </si>
+  <si>
+    <t>module-0008a - sctp module - module deny listed - module                            [FAIL]</t>
+  </si>
+  <si>
+    <t>module-0008a - sctp module - module /bin/true entry - module                        [PASS]</t>
+  </si>
+  <si>
+    <t>module-0008a - sctp module - module /bin/false entry - module                       [PASS]</t>
+  </si>
+  <si>
+    <t>module-0009a - squashfs module - module loaded - module                             [PASS]</t>
+  </si>
+  <si>
+    <t>module-0009a - squashfs module - module deny listed - module                        [FAIL]</t>
+  </si>
+  <si>
+    <t>module-0009a - squashfs module - module /bin/true entry - module                    [PASS]</t>
+  </si>
+  <si>
+    <t>module-0009a - squashfs module - module /bin/false entry - module                   [PASS]</t>
+  </si>
+  <si>
+    <t>module-0011a - udf module - module loaded - module                                  [PASS]</t>
+  </si>
+  <si>
+    <t>module-0011a - udf module - module deny listed - module                             [FAIL]</t>
+  </si>
+  <si>
+    <t>module-0011a - udf module - module /bin/true entry - module                         [PASS]</t>
+  </si>
+  <si>
+    <t>module-0011a - udf module - module /bin/false entry - module                        [PASS]</t>
+  </si>
+  <si>
+    <t>mount-0003a - /tmp mount - mount exists - mount                                     [PASS]</t>
+  </si>
+  <si>
+    <t>mount-0003a - /tmp mount - mount is mounted - mount                                 [PASS]</t>
+  </si>
+  <si>
+    <t>mount-0003a - /tmp mount - mount options - mount                                    [PASS]</t>
+  </si>
+  <si>
+    <t>mount-0003a - /tmp mount - mount is separate partition - mount                      [FAIL]</t>
+  </si>
+  <si>
+    <t>mount-0003a - /tmp mount - mount is mounted at boot - mount                         [FAIL]</t>
+  </si>
+  <si>
+    <t>nfs-0001a - nfs-utils package - package installed - package                         [PASS]</t>
+  </si>
+  <si>
+    <t>nfs-0002a - nfs server service - service status - unit                              [PASS]</t>
+  </si>
+  <si>
+    <t>nftables-0001a - nftables package - package installed - package                     [PASS]</t>
+  </si>
+  <si>
+    <t>rsync-0002a - rsyncd service - service status - unit                                [PASS]</t>
+  </si>
+  <si>
+    <t>rsyslog-0001a - rsyslog package - package installed - package                       [PASS]</t>
+  </si>
+  <si>
+    <t>rsyslog-0004a - rsyslog.conf file - exists - path                                   [PASS]</t>
+  </si>
+  <si>
+    <t>rsyslog-0004a - rsyslog.conf file - permissions - path                              [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0001a - openssh-server package - package installed - package                   [PASS]</t>
+  </si>
+  <si>
+    <t>sshd-0004a - /etc/ssh/sshd_config - exists - path                                   [PASS]</t>
+  </si>
+  <si>
+    <t>sshd-0004a - /etc/ssh/sshd_config - permissions - path                              [FAIL]</t>
+  </si>
+  <si>
+    <t>sshd-0023a - warning banner configured - regex - regex                              [PASS]</t>
+  </si>
+  <si>
+    <t>sudo-0001a - sudo package - package installed - package                             [PASS]</t>
+  </si>
+  <si>
+    <t>system-0006a - passwd- file permissions - exists - path                             [PASS]</t>
+  </si>
+  <si>
+    <t>system-0006a - passwd- file permissions - permissions - path                        [FAIL]</t>
+  </si>
+  <si>
+    <t>system-0008a - shadow- file permissions - exists - path                             [PASS]</t>
+  </si>
+  <si>
+    <t>system-0008a - shadow- file permissions - permissions - path                        [FAIL]</t>
+  </si>
+  <si>
+    <t>avahi-0002a - avahi daemon service - service status - unit                          [PASS]</t>
+  </si>
+  <si>
+    <t>avahi-0003a - avahi daemon socket - service status - unit                           [PASS]</t>
+  </si>
+  <si>
+    <t>rpcbind-0002a - rpcbind service - service status - unit                             [PASS]</t>
+  </si>
+  <si>
+    <t>rpcbind-0003a - rpcbind socket - service status - unit                              [PASS]</t>
+  </si>
+  <si>
+    <t>ipv4-0016a</t>
+  </si>
+  <si>
+    <t>parameter-0001a</t>
+  </si>
+  <si>
+    <t>parameter-0002a</t>
+  </si>
+  <si>
+    <t>private keys function</t>
+  </si>
+  <si>
+    <t>public keys function</t>
   </si>
 </sst>
 </file>
@@ -3560,9 +4284,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C05E3C-B0D6-4F66-8382-7BCC895B30C5}">
   <dimension ref="A1:J469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B401" sqref="B401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5619,7 +6343,7 @@
         <v>237</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>21</v>
@@ -5841,7 +6565,7 @@
         <v>237</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>176</v>
@@ -6647,7 +7371,7 @@
         <v>237</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>176</v>
@@ -6799,7 +7523,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>237</v>
@@ -7073,7 +7797,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>237</v>
@@ -7221,7 +7945,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>237</v>
@@ -7230,7 +7954,7 @@
         <v>548</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>51</v>
@@ -7667,7 +8391,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>237</v>
@@ -7699,7 +8423,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>237</v>
@@ -7731,7 +8455,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>723</v>
+        <v>1226</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>237</v>
@@ -7795,7 +8519,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>237</v>
@@ -7859,7 +8583,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>237</v>
@@ -7891,7 +8615,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>237</v>
@@ -7923,7 +8647,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>237</v>
@@ -7955,7 +8679,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>237</v>
@@ -8017,7 +8741,7 @@
         <v>237</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>453</v>
@@ -8043,13 +8767,13 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>453</v>
@@ -8071,7 +8795,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>237</v>
@@ -8103,7 +8827,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>237</v>
@@ -8135,13 +8859,13 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>453</v>
@@ -8159,13 +8883,13 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>478</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>453</v>
@@ -8185,13 +8909,13 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>478</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>453</v>
@@ -8211,7 +8935,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>237</v>
@@ -8235,7 +8959,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>470</v>
@@ -8261,7 +8985,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>470</v>
@@ -8287,7 +9011,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>237</v>
@@ -8311,7 +9035,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>474</v>
@@ -8337,7 +9061,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>474</v>
@@ -8621,13 +9345,13 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>73</v>
@@ -8647,13 +9371,13 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>235</v>
@@ -8677,13 +9401,13 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>235</v>
@@ -8707,13 +9431,13 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>235</v>
@@ -8737,13 +9461,13 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>814</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>817</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>235</v>
@@ -8767,13 +9491,13 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>235</v>
@@ -8797,13 +9521,13 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>235</v>
@@ -8827,13 +9551,13 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>235</v>
@@ -8857,13 +9581,13 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>235</v>
@@ -8887,13 +9611,13 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>235</v>
@@ -8917,13 +9641,13 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>235</v>
@@ -8947,13 +9671,13 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>821</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>824</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>235</v>
@@ -8977,13 +9701,13 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>235</v>
@@ -9007,13 +9731,13 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>235</v>
@@ -9037,13 +9761,13 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>235</v>
@@ -9067,13 +9791,13 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>235</v>
@@ -9097,13 +9821,13 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>235</v>
@@ -9127,13 +9851,13 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>235</v>
@@ -9157,13 +9881,13 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>828</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>831</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>235</v>
@@ -9187,13 +9911,13 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>235</v>
@@ -9217,13 +9941,13 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>235</v>
@@ -9247,13 +9971,13 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>235</v>
@@ -9277,13 +10001,13 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>235</v>
@@ -9307,13 +10031,13 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>235</v>
@@ -9337,13 +10061,13 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>235</v>
@@ -9367,13 +10091,13 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>835</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>838</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>235</v>
@@ -9397,13 +10121,13 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>235</v>
@@ -9427,13 +10151,13 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>235</v>
@@ -9457,13 +10181,13 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>235</v>
@@ -9487,13 +10211,13 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>235</v>
@@ -9517,13 +10241,13 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>235</v>
@@ -9547,13 +10271,13 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>235</v>
@@ -9577,13 +10301,13 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>842</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>845</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>235</v>
@@ -9607,13 +10331,13 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>235</v>
@@ -9637,13 +10361,13 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>235</v>
@@ -9667,13 +10391,13 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>235</v>
@@ -9697,13 +10421,13 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>235</v>
@@ -9727,13 +10451,13 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>235</v>
@@ -9757,13 +10481,13 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>235</v>
@@ -9787,13 +10511,13 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>849</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>852</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>235</v>
@@ -9817,13 +10541,13 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>235</v>
@@ -9847,13 +10571,13 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>235</v>
@@ -9877,13 +10601,13 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>235</v>
@@ -9907,13 +10631,13 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>235</v>
@@ -9937,13 +10661,13 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>235</v>
@@ -9967,13 +10691,13 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>235</v>
@@ -9997,13 +10721,13 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>856</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>859</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>235</v>
@@ -10027,13 +10751,13 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>235</v>
@@ -10057,13 +10781,13 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>235</v>
@@ -10087,13 +10811,13 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>235</v>
@@ -10117,13 +10841,13 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>235</v>
@@ -10147,13 +10871,13 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>235</v>
@@ -10177,13 +10901,13 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>235</v>
@@ -10207,13 +10931,13 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C231" s="3" t="s">
         <v>863</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>866</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>235</v>
@@ -10237,13 +10961,13 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>235</v>
@@ -10267,13 +10991,13 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>235</v>
@@ -10297,13 +11021,13 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>235</v>
@@ -10327,13 +11051,13 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>235</v>
@@ -10357,13 +11081,13 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>235</v>
@@ -10387,13 +11111,13 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>235</v>
@@ -10417,13 +11141,13 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>870</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>873</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>235</v>
@@ -10447,13 +11171,13 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>235</v>
@@ -10477,13 +11201,13 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>235</v>
@@ -10507,13 +11231,13 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>235</v>
@@ -10537,13 +11261,13 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>235</v>
@@ -10567,13 +11291,13 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>235</v>
@@ -10597,13 +11321,13 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>235</v>
@@ -10627,13 +11351,13 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C245" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>880</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>235</v>
@@ -10657,13 +11381,13 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>235</v>
@@ -10687,13 +11411,13 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>235</v>
@@ -10717,13 +11441,13 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>235</v>
@@ -10747,13 +11471,13 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>235</v>
@@ -10777,13 +11501,13 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>235</v>
@@ -10807,13 +11531,13 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>235</v>
@@ -10837,13 +11561,13 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>884</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>887</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>235</v>
@@ -10867,13 +11591,13 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>235</v>
@@ -10897,13 +11621,13 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>235</v>
@@ -10927,13 +11651,13 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>235</v>
@@ -10957,13 +11681,13 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>235</v>
@@ -10987,13 +11711,13 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>235</v>
@@ -11017,13 +11741,13 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>235</v>
@@ -11047,13 +11771,13 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>891</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>894</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>235</v>
@@ -11077,13 +11801,13 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>235</v>
@@ -11107,13 +11831,13 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>235</v>
@@ -11137,13 +11861,13 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>235</v>
@@ -11167,13 +11891,13 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>74</v>
@@ -11195,10 +11919,10 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>264</v>
@@ -11219,10 +11943,10 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>260</v>
@@ -11243,10 +11967,10 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>263</v>
@@ -11267,10 +11991,10 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>261</v>
@@ -11291,10 +12015,10 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>332</v>
@@ -11321,10 +12045,10 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>334</v>
@@ -11351,10 +12075,10 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>336</v>
@@ -11381,10 +12105,10 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>262</v>
@@ -11411,13 +12135,13 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>74</v>
@@ -11439,10 +12163,10 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>269</v>
@@ -11463,10 +12187,10 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>265</v>
@@ -11487,10 +12211,10 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>268</v>
@@ -11511,10 +12235,10 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>266</v>
@@ -11535,10 +12259,10 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>327</v>
@@ -11565,10 +12289,10 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>329</v>
@@ -11595,10 +12319,10 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>267</v>
@@ -11625,13 +12349,13 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>74</v>
@@ -11653,10 +12377,10 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>274</v>
@@ -11677,10 +12401,10 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>270</v>
@@ -11701,10 +12425,10 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>273</v>
@@ -11725,10 +12449,10 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>271</v>
@@ -11749,10 +12473,10 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>295</v>
@@ -11779,10 +12503,10 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>296</v>
@@ -11809,10 +12533,10 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>297</v>
@@ -11839,10 +12563,10 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>272</v>
@@ -11869,13 +12593,13 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>74</v>
@@ -11897,10 +12621,10 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>279</v>
@@ -11921,10 +12645,10 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>275</v>
@@ -11945,10 +12669,10 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>278</v>
@@ -11969,10 +12693,10 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>276</v>
@@ -11993,10 +12717,10 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>301</v>
@@ -12023,10 +12747,10 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>302</v>
@@ -12053,10 +12777,10 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>277</v>
@@ -12083,13 +12807,13 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>74</v>
@@ -12111,10 +12835,10 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>284</v>
@@ -12135,10 +12859,10 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>280</v>
@@ -12159,10 +12883,10 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>283</v>
@@ -12183,10 +12907,10 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>281</v>
@@ -12207,10 +12931,10 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>313</v>
@@ -12237,10 +12961,10 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>315</v>
@@ -12267,10 +12991,10 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>317</v>
@@ -12297,10 +13021,10 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>282</v>
@@ -12327,13 +13051,13 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>74</v>
@@ -12355,10 +13079,10 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>289</v>
@@ -12379,10 +13103,10 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>285</v>
@@ -12403,10 +13127,10 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>288</v>
@@ -12427,10 +13151,10 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>286</v>
@@ -12451,10 +13175,10 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>322</v>
@@ -12481,10 +13205,10 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>320</v>
@@ -12511,10 +13235,10 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>324</v>
@@ -12541,10 +13265,10 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>287</v>
@@ -12571,7 +13295,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>237</v>
@@ -12599,7 +13323,7 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>305</v>
@@ -12623,7 +13347,7 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>305</v>
@@ -12647,7 +13371,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>305</v>
@@ -12671,7 +13395,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>305</v>
@@ -12695,7 +13419,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>305</v>
@@ -12725,7 +13449,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>305</v>
@@ -12755,7 +13479,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>305</v>
@@ -12785,7 +13509,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>305</v>
@@ -12815,13 +13539,13 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>220</v>
@@ -12843,13 +13567,13 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>220</v>
@@ -12871,7 +13595,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>237</v>
@@ -12901,13 +13625,13 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>612</v>
@@ -12929,13 +13653,13 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>612</v>
@@ -12953,13 +13677,13 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>558</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>612</v>
@@ -12977,13 +13701,13 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>558</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>612</v>
@@ -13001,13 +13725,13 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>57</v>
@@ -13033,7 +13757,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>237</v>
@@ -13057,7 +13781,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>237</v>
@@ -13081,7 +13805,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>438</v>
@@ -13105,7 +13829,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>438</v>
@@ -13259,7 +13983,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>237</v>
@@ -13289,7 +14013,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>237</v>
@@ -13319,7 +14043,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>237</v>
@@ -13345,7 +14069,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>237</v>
@@ -13371,7 +14095,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>237</v>
@@ -13397,7 +14121,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>237</v>
@@ -13423,7 +14147,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>237</v>
@@ -13449,7 +14173,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>237</v>
@@ -13475,7 +14199,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>237</v>
@@ -13501,7 +14225,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>237</v>
@@ -13527,7 +14251,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>237</v>
@@ -13553,7 +14277,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>237</v>
@@ -13579,7 +14303,7 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>237</v>
@@ -13605,7 +14329,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>237</v>
@@ -13631,7 +14355,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>237</v>
@@ -13657,7 +14381,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>237</v>
@@ -13683,7 +14407,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>237</v>
@@ -13709,7 +14433,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>237</v>
@@ -13735,7 +14459,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>237</v>
@@ -13761,7 +14485,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>237</v>
@@ -13787,13 +14511,13 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>178</v>
@@ -13909,7 +14633,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
-        <v>781</v>
+        <v>1227</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>237</v>
@@ -13941,7 +14665,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
-        <v>782</v>
+        <v>1228</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>237</v>
@@ -13973,7 +14697,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>237</v>
@@ -14001,13 +14725,13 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>49</v>
@@ -14031,7 +14755,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>237</v>
@@ -14059,13 +14783,13 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>49</v>
@@ -14083,7 +14807,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>237</v>
@@ -14107,7 +14831,7 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>560</v>
@@ -14131,7 +14855,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>560</v>
@@ -14155,13 +14879,13 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>49</v>
@@ -14179,13 +14903,13 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>49</v>
@@ -14203,13 +14927,13 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>49</v>
@@ -14227,7 +14951,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>237</v>
@@ -14255,7 +14979,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>237</v>
@@ -14279,7 +15003,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>237</v>
@@ -14307,7 +15031,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>237</v>
@@ -14331,7 +15055,7 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>565</v>
@@ -14355,7 +15079,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>565</v>
@@ -14379,13 +15103,13 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>68</v>
@@ -14411,7 +15135,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>237</v>
@@ -14443,7 +15167,7 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>237</v>
@@ -14467,7 +15191,7 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>450</v>
@@ -14493,7 +15217,7 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>450</v>
@@ -14519,7 +15243,7 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>237</v>
@@ -14543,7 +15267,7 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>456</v>
@@ -14569,7 +15293,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>456</v>
@@ -14703,13 +15427,13 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>39</v>
@@ -14735,13 +15459,13 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>237</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D397" s="6" t="s">
         <v>169</v>
@@ -14765,7 +15489,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>237</v>
@@ -14795,13 +15519,13 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>169</v>
@@ -14827,7 +15551,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>237</v>
@@ -14857,13 +15581,13 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C401" s="3" t="s">
         <v>919</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C401" s="3" t="s">
-        <v>922</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>169</v>
@@ -14887,13 +15611,13 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>169</v>
@@ -14917,7 +15641,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>237</v>
@@ -14973,7 +15697,7 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>237</v>
@@ -15001,7 +15725,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>237</v>
@@ -15031,7 +15755,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>237</v>
@@ -15059,7 +15783,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>237</v>
@@ -15083,7 +15807,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>552</v>
@@ -15107,7 +15831,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>552</v>
@@ -15131,7 +15855,7 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>237</v>
@@ -15161,13 +15885,13 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>158</v>
@@ -15189,13 +15913,13 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>159</v>
@@ -15217,13 +15941,13 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>159</v>
@@ -15241,13 +15965,13 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>159</v>
@@ -15265,13 +15989,13 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>159</v>
@@ -15289,13 +16013,13 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>159</v>
@@ -15313,7 +16037,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>237</v>
@@ -15343,7 +16067,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>576</v>
@@ -15371,7 +16095,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>576</v>
@@ -15401,7 +16125,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>237</v>
@@ -15429,7 +16153,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>237</v>
@@ -15457,7 +16181,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>237</v>
@@ -15487,7 +16211,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>237</v>
@@ -15517,13 +16241,13 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D425" s="2" t="s">
         <v>159</v>
@@ -15547,13 +16271,13 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>159</v>
@@ -15569,7 +16293,7 @@
       </c>
       <c r="H426" s="2"/>
       <c r="I426" s="2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>14</v>
@@ -15577,7 +16301,7 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>237</v>
@@ -15607,7 +16331,7 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="7" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>237</v>
@@ -15629,7 +16353,7 @@
       </c>
       <c r="H428" s="2"/>
       <c r="I428" s="2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="J428" s="2" t="s">
         <v>14</v>
@@ -15637,7 +16361,7 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>237</v>
@@ -15667,7 +16391,7 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="7" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>237</v>
@@ -15697,7 +16421,7 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>237</v>
@@ -15727,7 +16451,7 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>237</v>
@@ -15757,7 +16481,7 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>237</v>
@@ -15787,7 +16511,7 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>237</v>
@@ -15817,7 +16541,7 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>237</v>
@@ -15847,7 +16571,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>237</v>
@@ -15877,13 +16601,13 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>159</v>
@@ -15907,7 +16631,7 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>237</v>
@@ -15937,7 +16661,7 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>237</v>
@@ -15967,7 +16691,7 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>237</v>
@@ -15997,13 +16721,13 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D441" s="2" t="s">
         <v>64</v>
@@ -16029,13 +16753,13 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="7" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D442" s="2" t="s">
         <v>64</v>
@@ -16050,7 +16774,7 @@
         <v>164</v>
       </c>
       <c r="H442" s="2" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="I442" s="2" t="s">
         <v>48</v>
@@ -16061,7 +16785,7 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="7" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>237</v>
@@ -16093,7 +16817,7 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="7" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>237</v>
@@ -16123,13 +16847,13 @@
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="7" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>64</v>
@@ -16155,7 +16879,7 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="6" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B446" s="6" t="s">
         <v>237</v>
@@ -16183,7 +16907,7 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="7" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>237</v>
@@ -16209,7 +16933,7 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="7" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>237</v>
@@ -16235,7 +16959,7 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="7" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>237</v>
@@ -16261,7 +16985,7 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>237</v>
@@ -16287,7 +17011,7 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="7" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>237</v>
@@ -16313,7 +17037,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="7" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>237</v>
@@ -16339,7 +17063,7 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="7" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>237</v>
@@ -16365,7 +17089,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" s="7" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>237</v>
@@ -16517,7 +17241,7 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="7" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>237</v>
@@ -16549,7 +17273,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="7" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>237</v>
@@ -16581,7 +17305,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="6" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B462" s="6" t="s">
         <v>237</v>
@@ -16609,7 +17333,7 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>237</v>
@@ -16641,7 +17365,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>237</v>
@@ -16804,4 +17528,1901 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F00C5D-686F-4DF5-BF2A-5C10CE40ECA3}">
+  <dimension ref="A1:C250"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>989</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>991</v>
+      </c>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>992</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>993</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>994</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>995</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>996</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>997</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>998</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>999</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B110" s="7"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B111" s="7"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B112" s="7"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B114" s="7"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B115" s="7"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B116" s="7"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B118" s="7"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B119" s="7"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B120" s="7"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B123" s="7"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B124" s="7"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B125" s="7"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="7" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B128" s="7"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B129" s="7"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B130" s="7"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B131" s="7"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B134" s="7"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B135" s="7"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B136" s="7"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B137" s="7"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B186" s="7"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B188" s="7"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B205" s="7"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B206" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B207" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B232" s="7"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B234" s="7"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B236" s="7"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B238" s="7"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B240" s="7"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B242" s="7"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B244" s="7"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B246" s="7"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A195:A657">
+    <sortCondition ref="A195:A657"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>